--- a/file/权限对应表.xlsx
+++ b/file/权限对应表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FlyBull\PycharmProjects\CMS\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0BED0D-291E-4EA6-811F-D4E17DDD42BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D377AD7C-3635-4192-A279-A5FC398498E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="21600" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>权限名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,6 +203,10 @@
   </si>
   <si>
     <t>查询客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customeradd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -830,7 +834,7 @@
         <v>39</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">

--- a/file/权限对应表.xlsx
+++ b/file/权限对应表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FlyBull\PycharmProjects\CMS\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D377AD7C-3635-4192-A279-A5FC398498E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419B8EA6-EF93-49DD-B822-54DE00581DEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="1920" windowWidth="21600" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>权限名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,6 +207,18 @@
   </si>
   <si>
     <t>customeradd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customerlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customeredit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customerdelete</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -574,7 +586,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -845,7 +857,7 @@
         <v>43</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -856,7 +868,7 @@
         <v>44</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -867,7 +879,7 @@
         <v>40</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/file/权限对应表.xlsx
+++ b/file/权限对应表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FlyBull\PycharmProjects\CMS\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pycharm\CMS\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419B8EA6-EF93-49DD-B822-54DE00581DEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECD687C-1964-4FBD-B48F-B3619D7AEBF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="21600" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
   <si>
     <t>权限名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>待定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查询日志</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -219,6 +215,26 @@
   </si>
   <si>
     <t>customerdelete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search-contract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search-process</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contractlist</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -265,7 +281,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -288,11 +304,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -301,6 +328,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -583,20 +613,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -606,63 +636,81 @@
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -670,10 +718,10 @@
         <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -681,205 +729,235 @@
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/file/权限对应表.xlsx
+++ b/file/权限对应表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pycharm\CMS\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECD687C-1964-4FBD-B48F-B3619D7AEBF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7046BB0-2C0D-4527-83B8-59ABB5F96381}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
   <si>
     <t>权限名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -616,7 +616,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -720,6 +720,9 @@
       <c r="C7" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -731,6 +734,9 @@
       <c r="C8" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -840,6 +846,9 @@
       <c r="C16" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -851,6 +860,9 @@
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -876,6 +888,9 @@
       <c r="C19" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -901,6 +916,9 @@
       <c r="C21" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="D21" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -912,6 +930,9 @@
       <c r="C22" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -923,6 +944,9 @@
       <c r="C23" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -934,6 +958,9 @@
       <c r="C24" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -958,6 +985,9 @@
       </c>
       <c r="C26" s="1" t="s">
         <v>47</v>
+      </c>
+      <c r="D26" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/file/权限对应表.xlsx
+++ b/file/权限对应表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pycharm\CMS\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FlyBull\PycharmProjects\CMS\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7046BB0-2C0D-4527-83B8-59ABB5F96381}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA99091F-9054-4345-8DBA-8C23A3373EDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -281,7 +281,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -304,17 +304,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -330,7 +319,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -616,7 +605,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -650,7 +639,7 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -664,7 +653,7 @@
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -678,7 +667,7 @@
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -692,7 +681,7 @@
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -706,7 +695,7 @@
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -720,7 +709,7 @@
       <c r="C7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -734,7 +723,7 @@
       <c r="C8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -748,7 +737,7 @@
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -762,7 +751,7 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -776,7 +765,7 @@
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -790,7 +779,7 @@
       <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -804,7 +793,7 @@
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -818,7 +807,7 @@
       <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -832,7 +821,7 @@
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -846,7 +835,7 @@
       <c r="C16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -860,7 +849,7 @@
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -874,7 +863,7 @@
       <c r="C18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -888,7 +877,7 @@
       <c r="C19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -902,7 +891,7 @@
       <c r="C20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -916,7 +905,7 @@
       <c r="C21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -930,7 +919,7 @@
       <c r="C22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -944,7 +933,7 @@
       <c r="C23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -958,7 +947,7 @@
       <c r="C24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -972,7 +961,7 @@
       <c r="C25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -986,7 +975,7 @@
       <c r="C26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>49</v>
       </c>
     </row>
